--- a/Decentralised CES/test_result/Test Data Fair.xlsx
+++ b/Decentralised CES/test_result/Test Data Fair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25913"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Skydrive\Documents\Work\EE4\Final Year Project\FYP\Decentralised CES\test_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86704f67b923bf99/^.Documents/Work/EE4/Final Year Project/FYP/Decentralised CES/test_result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data Fair" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Data Fair'!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="158001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +33,7 @@
     <author>Yuchen Wang</author>
   </authors>
   <commentList>
-    <comment ref="K41" authorId="0" shapeId="0">
+    <comment ref="K41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0" shapeId="0">
+    <comment ref="K47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K50" authorId="0" shapeId="0">
+    <comment ref="K50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O56" authorId="0" shapeId="0">
+    <comment ref="O56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="38">
   <si>
     <t>hour</t>
   </si>
@@ -252,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +404,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -698,7 +719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -741,12 +762,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -775,11 +802,17 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -801,6 +834,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493807</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>8047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>62183</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11397079" y="83828047"/>
+          <a:ext cx="1587500" cy="846423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>It benefits to be part of a community which</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> provides</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,26 +1173,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J601"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:O601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M367" sqref="M367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1151,7 +1262,7 @@
         <v>0.71175090575994915</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1181,7 +1292,7 @@
         <v>0.5202342067330582</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1211,7 +1322,7 @@
         <v>0.36972319793825065</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1241,7 +1352,7 @@
         <v>0.7010411682425699</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1271,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1301,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1331,7 +1442,7 @@
         <v>0.68758275825949022</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1361,7 +1472,7 @@
         <v>0.62664979956891487</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1391,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1421,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1451,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1481,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1511,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1541,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1571,7 +1682,7 @@
         <v>0.67618164867829089</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1601,7 +1712,7 @@
         <v>0.75408231540803927</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1631,7 +1742,7 @@
         <v>0.40323886008915022</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1661,7 +1772,7 @@
         <v>0.32555036137844112</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1691,7 +1802,7 @@
         <v>0.36601644451489623</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1721,7 +1832,7 @@
         <v>0.22866253450206642</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1751,7 +1862,7 @@
         <v>0.4358216941868433</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1781,7 +1892,7 @@
         <v>0.28899686999192165</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1811,7 +1922,7 @@
         <v>0.69823987874684568</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1841,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1875,7 +1986,7 @@
         <v>0.77008901021037035</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1905,7 +2016,7 @@
         <v>0.31467240926250273</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1935,7 +2046,7 @@
         <v>0.50918200765072463</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1965,7 +2076,7 @@
         <v>0.8719519945544556</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1995,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -2025,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2055,7 +2166,7 @@
         <v>0.81536283002030929</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2085,7 +2196,7 @@
         <v>0.80052700111398634</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2115,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2145,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -2175,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2205,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12</v>
       </c>
@@ -2235,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>13</v>
       </c>
@@ -2265,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2295,7 +2406,7 @@
         <v>0.85431565083555061</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>15</v>
       </c>
@@ -2325,7 +2436,7 @@
         <v>0.90687202821044588</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2355,7 +2466,7 @@
         <v>0.54489827646981359</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>17</v>
       </c>
@@ -2385,7 +2496,7 @@
         <v>0.44306395063280302</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>18</v>
       </c>
@@ -2415,7 +2526,7 @@
         <v>0.46870389839969878</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>19</v>
       </c>
@@ -2445,7 +2556,7 @@
         <v>0.27707669535142121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20</v>
       </c>
@@ -2475,7 +2586,7 @@
         <v>0.55950040077595087</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>21</v>
       </c>
@@ -2505,7 +2616,7 @@
         <v>0.37045745649648371</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2535,7 +2646,7 @@
         <v>0.74555164527474227</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>23</v>
       </c>
@@ -2565,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2599,7 +2710,7 @@
         <v>0.71461091433466695</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2629,7 +2740,7 @@
         <v>0.52232947951810105</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2659,7 +2770,7 @@
         <v>0.43512904706955319</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2689,7 +2800,7 @@
         <v>0.66300679281916408</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2719,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2749,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2779,7 +2890,7 @@
         <v>0.47287987841530721</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2809,7 +2920,7 @@
         <v>0.58966064195983026</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -2839,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2869,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -2899,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2929,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2959,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13</v>
       </c>
@@ -2989,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3019,7 +3130,7 @@
         <v>0.63115459493229464</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -3049,7 +3160,7 @@
         <v>0.80694153937818014</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16</v>
       </c>
@@ -3079,7 +3190,7 @@
         <v>0.45886031370594393</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3109,7 +3220,7 @@
         <v>0.35014880378741509</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3139,7 +3250,7 @@
         <v>0.37066462497154129</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3169,7 +3280,7 @@
         <v>0.23195061876986484</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20</v>
       </c>
@@ -3199,7 +3310,7 @@
         <v>0.49800876634480612</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>21</v>
       </c>
@@ -3229,7 +3340,7 @@
         <v>0.33041673749362299</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>22</v>
       </c>
@@ -3259,7 +3370,7 @@
         <v>0.78951010486638096</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>23</v>
       </c>
@@ -3289,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3323,7 +3434,7 @@
         <v>0.67634883240672783</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3353,7 +3464,7 @@
         <v>0.33815848948189398</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3383,7 +3494,7 @@
         <v>0.38490581799488466</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3413,7 +3524,7 @@
         <v>0.56219852298119555</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -3443,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5</v>
       </c>
@@ -3473,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
@@ -3503,7 +3614,7 @@
         <v>0.55933482687046965</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7</v>
       </c>
@@ -3533,7 +3644,7 @@
         <v>0.54469446740917549</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -3563,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -3593,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10</v>
       </c>
@@ -3623,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>11</v>
       </c>
@@ -3653,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>12</v>
       </c>
@@ -3683,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3713,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3743,7 +3854,7 @@
         <v>0.62850314321420109</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>15</v>
       </c>
@@ -3773,7 +3884,7 @@
         <v>0.65090448878686691</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>16</v>
       </c>
@@ -3803,7 +3914,7 @@
         <v>0.37270715004527005</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>17</v>
       </c>
@@ -3833,7 +3944,7 @@
         <v>0.30293435532909008</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>18</v>
       </c>
@@ -3863,7 +3974,7 @@
         <v>0.3204600786443213</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>19</v>
       </c>
@@ -3893,7 +4004,7 @@
         <v>0.20030087748541323</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>20</v>
       </c>
@@ -3923,7 +4034,7 @@
         <v>0.40406000930637448</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>21</v>
       </c>
@@ -3953,7 +4064,7 @@
         <v>0.26767151017692303</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>22</v>
       </c>
@@ -3983,7 +4094,7 @@
         <v>0.69553824003538878</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>23</v>
       </c>
@@ -4013,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4047,7 +4158,7 @@
         <v>0.70410267146982919</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4077,7 +4188,7 @@
         <v>0.39307917307850954</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4107,7 +4218,7 @@
         <v>0.48494306221186168</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4137,7 +4248,7 @@
         <v>0.62805074782154402</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4167,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -4197,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6</v>
       </c>
@@ -4227,7 +4338,7 @@
         <v>0.77010642602832147</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7</v>
       </c>
@@ -4257,7 +4368,7 @@
         <v>0.62904797313283267</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -4287,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>9</v>
       </c>
@@ -4317,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -4347,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>11</v>
       </c>
@@ -4377,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12</v>
       </c>
@@ -4407,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>13</v>
       </c>
@@ -4437,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4467,7 +4578,7 @@
         <v>0.6288365222071175</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>15</v>
       </c>
@@ -4497,7 +4608,7 @@
         <v>0.66191135995409667</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>16</v>
       </c>
@@ -4527,7 +4638,7 @@
         <v>0.37321587212597052</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>17</v>
       </c>
@@ -4557,7 +4668,7 @@
         <v>0.34916946051202885</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>18</v>
       </c>
@@ -4587,7 +4698,7 @@
         <v>0.3429373828159793</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>19</v>
       </c>
@@ -4617,7 +4728,7 @@
         <v>0.21402500763716989</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>20</v>
       </c>
@@ -4647,7 +4758,7 @@
         <v>0.43608479897126268</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>21</v>
       </c>
@@ -4677,7 +4788,7 @@
         <v>0.28911144711483144</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>22</v>
       </c>
@@ -4707,7 +4818,7 @@
         <v>0.6979448816643754</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>23</v>
       </c>
@@ -4737,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0</v>
       </c>
@@ -4771,7 +4882,7 @@
         <v>0.7370877752160504</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4801,7 +4912,7 @@
         <v>0.44393816069573955</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4831,7 +4942,7 @@
         <v>0.69670998477685775</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4861,7 +4972,7 @@
         <v>0.78952443925650151</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4891,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4921,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -4951,7 +5062,7 @@
         <v>0.82769584354325987</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -4981,7 +5092,7 @@
         <v>0.55856641109257577</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>8</v>
       </c>
@@ -5011,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>9</v>
       </c>
@@ -5041,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10</v>
       </c>
@@ -5071,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11</v>
       </c>
@@ -5101,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>12</v>
       </c>
@@ -5131,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13</v>
       </c>
@@ -5161,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>14</v>
       </c>
@@ -5191,7 +5302,7 @@
         <v>0.95336026464228041</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>15</v>
       </c>
@@ -5221,7 +5332,7 @@
         <v>0.83024907316073004</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5251,7 +5362,7 @@
         <v>0.51086447984653793</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>17</v>
       </c>
@@ -5281,7 +5392,7 @@
         <v>0.34194534314092906</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>18</v>
       </c>
@@ -5311,7 +5422,7 @@
         <v>0.34200662384196362</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>19</v>
       </c>
@@ -5341,7 +5452,7 @@
         <v>0.22499149063640622</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20</v>
       </c>
@@ -5371,7 +5482,7 @@
         <v>0.38129664822590653</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21</v>
       </c>
@@ -5401,7 +5512,7 @@
         <v>0.2231638210639284</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>22</v>
       </c>
@@ -5431,7 +5542,7 @@
         <v>0.56579402126159595</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>23</v>
       </c>
@@ -5461,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -5495,7 +5606,7 @@
         <v>0.71231925027993259</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5525,7 +5636,7 @@
         <v>0.31448049546691487</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -5555,7 +5666,7 @@
         <v>0.70327912552587446</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3</v>
       </c>
@@ -5585,7 +5696,7 @@
         <v>0.57911234888702745</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4</v>
       </c>
@@ -5615,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5</v>
       </c>
@@ -5645,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5675,7 +5786,7 @@
         <v>0.60906978648348253</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -5705,7 +5816,7 @@
         <v>0.56300920320564884</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8</v>
       </c>
@@ -5735,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9</v>
       </c>
@@ -5765,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10</v>
       </c>
@@ -5795,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -5825,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>12</v>
       </c>
@@ -5855,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>13</v>
       </c>
@@ -5885,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>14</v>
       </c>
@@ -5915,7 +6026,7 @@
         <v>0.67565457438636078</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15</v>
       </c>
@@ -5945,7 +6056,7 @@
         <v>0.67955860141133495</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16</v>
       </c>
@@ -5975,7 +6086,7 @@
         <v>0.43960720032912076</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>17</v>
       </c>
@@ -6005,7 +6116,7 @@
         <v>0.36558484877856789</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>18</v>
       </c>
@@ -6035,7 +6146,7 @@
         <v>0.41533380864187702</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>19</v>
       </c>
@@ -6065,7 +6176,7 @@
         <v>0.29200809498262997</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>20</v>
       </c>
@@ -6095,7 +6206,7 @@
         <v>0.43276977944968975</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21</v>
       </c>
@@ -6125,7 +6236,7 @@
         <v>0.28456475283841137</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>22</v>
       </c>
@@ -6155,7 +6266,7 @@
         <v>0.74162938633143871</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>23</v>
       </c>
@@ -6185,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6219,7 +6330,7 @@
         <v>0.68744007095399218</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6249,7 +6360,7 @@
         <v>0.31469009189681207</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -6279,7 +6390,7 @@
         <v>0.69274856401102891</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>3</v>
       </c>
@@ -6309,7 +6420,7 @@
         <v>0.69027239489400216</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6339,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>5</v>
       </c>
@@ -6369,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6399,7 +6510,7 @@
         <v>0.69689307796845379</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7</v>
       </c>
@@ -6429,7 +6540,7 @@
         <v>0.56233712314415873</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>8</v>
       </c>
@@ -6459,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -6489,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10</v>
       </c>
@@ -6519,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11</v>
       </c>
@@ -6549,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>12</v>
       </c>
@@ -6579,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>13</v>
       </c>
@@ -6609,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>14</v>
       </c>
@@ -6639,7 +6750,7 @@
         <v>0.61702731703052105</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>15</v>
       </c>
@@ -6669,7 +6780,7 @@
         <v>0.53988507917747175</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>16</v>
       </c>
@@ -6699,7 +6810,7 @@
         <v>0.48593586676092737</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>17</v>
       </c>
@@ -6729,7 +6840,7 @@
         <v>0.31984664953590103</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>18</v>
       </c>
@@ -6759,7 +6870,7 @@
         <v>0.2945954910219597</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>19</v>
       </c>
@@ -6789,7 +6900,7 @@
         <v>0.17972402552085623</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>20</v>
       </c>
@@ -6819,7 +6930,7 @@
         <v>0.30714518549332076</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>21</v>
       </c>
@@ -6849,7 +6960,7 @@
         <v>0.23078672211209483</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>22</v>
       </c>
@@ -6879,7 +6990,7 @@
         <v>0.56667411432830539</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>23</v>
       </c>
@@ -6909,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -6943,7 +7054,7 @@
         <v>0.71843256171357606</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6973,7 +7084,7 @@
         <v>0.29508704499895227</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2</v>
       </c>
@@ -7003,7 +7114,7 @@
         <v>0.62261593296264417</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3</v>
       </c>
@@ -7033,7 +7144,7 @@
         <v>0.6515074889829936</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4</v>
       </c>
@@ -7063,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>5</v>
       </c>
@@ -7093,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>6</v>
       </c>
@@ -7123,7 +7234,7 @@
         <v>0.43628141528741843</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>7</v>
       </c>
@@ -7153,7 +7264,7 @@
         <v>0.38496791944087327</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -7183,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>9</v>
       </c>
@@ -7213,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>10</v>
       </c>
@@ -7243,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11</v>
       </c>
@@ -7273,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>12</v>
       </c>
@@ -7303,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>13</v>
       </c>
@@ -7333,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>14</v>
       </c>
@@ -7363,7 +7474,7 @@
         <v>0.95743673141052943</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>15</v>
       </c>
@@ -7393,7 +7504,7 @@
         <v>0.82518484426759187</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>16</v>
       </c>
@@ -7423,7 +7534,7 @@
         <v>0.58653327027534863</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>17</v>
       </c>
@@ -7453,7 +7564,7 @@
         <v>0.41840548173622738</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>18</v>
       </c>
@@ -7483,7 +7594,7 @@
         <v>0.388943333642707</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>19</v>
       </c>
@@ -7513,7 +7624,7 @@
         <v>0.24404859384086916</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>20</v>
       </c>
@@ -7543,7 +7654,7 @@
         <v>0.43145534601818453</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21</v>
       </c>
@@ -7573,7 +7684,7 @@
         <v>0.26052885936528197</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>22</v>
       </c>
@@ -7603,7 +7714,7 @@
         <v>0.73938521889620223</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>23</v>
       </c>
@@ -7633,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -7667,7 +7778,7 @@
         <v>0.76559495845599423</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7697,7 +7808,7 @@
         <v>0.2031830607122796</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2</v>
       </c>
@@ -7727,7 +7838,7 @@
         <v>0.79062083345046996</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3</v>
       </c>
@@ -7757,7 +7868,7 @@
         <v>0.69878340732536626</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4</v>
       </c>
@@ -7787,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>5</v>
       </c>
@@ -7817,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>6</v>
       </c>
@@ -7847,7 +7958,7 @@
         <v>0.74131090274383138</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7</v>
       </c>
@@ -7877,7 +7988,7 @@
         <v>0.70462589819221599</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>8</v>
       </c>
@@ -7907,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9</v>
       </c>
@@ -7937,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10</v>
       </c>
@@ -7967,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>11</v>
       </c>
@@ -7997,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>12</v>
       </c>
@@ -8027,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>13</v>
       </c>
@@ -8057,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>14</v>
       </c>
@@ -8087,7 +8198,7 @@
         <v>1.0692420967597509</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>15</v>
       </c>
@@ -8117,7 +8228,7 @@
         <v>0.88533923086247912</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>16</v>
       </c>
@@ -8147,7 +8258,7 @@
         <v>0.62343645540658676</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>17</v>
       </c>
@@ -8177,7 +8288,7 @@
         <v>0.44593309119675356</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>18</v>
       </c>
@@ -8207,7 +8318,7 @@
         <v>0.42225934652457464</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>19</v>
       </c>
@@ -8237,7 +8348,7 @@
         <v>0.293497954218012</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>20</v>
       </c>
@@ -8267,7 +8378,7 @@
         <v>0.43538355115264737</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>21</v>
       </c>
@@ -8297,7 +8408,7 @@
         <v>0.3204713406122392</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>22</v>
       </c>
@@ -8327,7 +8438,7 @@
         <v>0.74019183378665387</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>23</v>
       </c>
@@ -8357,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -8391,7 +8502,7 @@
         <v>0.81357803503151704</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -8421,7 +8532,7 @@
         <v>0.59477565501654051</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -8451,7 +8562,7 @@
         <v>0.51137810314456766</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3</v>
       </c>
@@ -8481,7 +8592,7 @@
         <v>0.75019965666097521</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4</v>
       </c>
@@ -8511,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>5</v>
       </c>
@@ -8541,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>6</v>
       </c>
@@ -8571,7 +8682,7 @@
         <v>0.78488923176141645</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>7</v>
       </c>
@@ -8601,7 +8712,7 @@
         <v>0.76928216765532942</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>8</v>
       </c>
@@ -8631,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -8661,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10</v>
       </c>
@@ -8691,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>11</v>
       </c>
@@ -8721,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>12</v>
       </c>
@@ -8751,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>13</v>
       </c>
@@ -8781,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>14</v>
       </c>
@@ -8811,7 +8922,7 @@
         <v>0.92444008850383041</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>15</v>
       </c>
@@ -8841,7 +8952,7 @@
         <v>0.94389942234128654</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>16</v>
       </c>
@@ -8871,7 +8982,7 @@
         <v>0.55310344223977848</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>17</v>
       </c>
@@ -8901,7 +9012,7 @@
         <v>0.51759867461144482</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>18</v>
       </c>
@@ -8931,7 +9042,7 @@
         <v>0.57605663444615895</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>19</v>
       </c>
@@ -8961,7 +9072,7 @@
         <v>0.37771300494002175</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>20</v>
       </c>
@@ -8991,7 +9102,7 @@
         <v>0.70807951324783591</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>21</v>
       </c>
@@ -9021,7 +9132,7 @@
         <v>0.45757776696982111</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>22</v>
       </c>
@@ -9051,7 +9162,7 @@
         <v>1.0568794792174006</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>23</v>
       </c>
@@ -9081,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0</v>
       </c>
@@ -9115,7 +9226,7 @@
         <v>0.83186668716715184</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -9145,7 +9256,7 @@
         <v>0.87294204975531753</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2</v>
       </c>
@@ -9175,7 +9286,7 @@
         <v>0.6255831272298904</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3</v>
       </c>
@@ -9205,7 +9316,7 @@
         <v>0.97269511256666918</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4</v>
       </c>
@@ -9235,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -9265,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -9295,7 +9406,7 @@
         <v>0.78469395710129919</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7</v>
       </c>
@@ -9325,7 +9436,7 @@
         <v>0.8130651174400505</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8</v>
       </c>
@@ -9355,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>9</v>
       </c>
@@ -9385,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>10</v>
       </c>
@@ -9415,7 +9526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>11</v>
       </c>
@@ -9445,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>12</v>
       </c>
@@ -9475,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>13</v>
       </c>
@@ -9505,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>14</v>
       </c>
@@ -9535,7 +9646,7 @@
         <v>0.77974899122061514</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>15</v>
       </c>
@@ -9565,7 +9676,7 @@
         <v>0.75452273095000677</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>16</v>
       </c>
@@ -9595,7 +9706,7 @@
         <v>0.55759951146947573</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>17</v>
       </c>
@@ -9625,7 +9736,7 @@
         <v>0.51816990450471367</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>18</v>
       </c>
@@ -9655,7 +9766,7 @@
         <v>0.57288943215579835</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>19</v>
       </c>
@@ -9685,7 +9796,7 @@
         <v>0.36171963347960767</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>20</v>
       </c>
@@ -9715,7 +9826,7 @@
         <v>0.74664395517418913</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>21</v>
       </c>
@@ -9745,7 +9856,7 @@
         <v>0.4833441413823909</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>22</v>
       </c>
@@ -9775,7 +9886,7 @@
         <v>1.1211828275816154</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>23</v>
       </c>
@@ -9805,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0</v>
       </c>
@@ -9839,7 +9950,7 @@
         <v>0.7034291590077526</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1</v>
       </c>
@@ -9869,7 +9980,7 @@
         <v>0.63374272005167953</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -9899,7 +10010,7 @@
         <v>0.43703418302665764</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -9929,7 +10040,7 @@
         <v>0.84728722245740073</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4</v>
       </c>
@@ -9959,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>5</v>
       </c>
@@ -9989,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>6</v>
       </c>
@@ -10019,7 +10130,7 @@
         <v>0.52144699568173769</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>7</v>
       </c>
@@ -10049,7 +10160,7 @@
         <v>0.63013146170306455</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8</v>
       </c>
@@ -10079,7 +10190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9</v>
       </c>
@@ -10109,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -10139,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11</v>
       </c>
@@ -10169,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>12</v>
       </c>
@@ -10199,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>13</v>
       </c>
@@ -10229,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>14</v>
       </c>
@@ -10259,7 +10370,7 @@
         <v>0.58594700104610187</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>15</v>
       </c>
@@ -10289,7 +10400,7 @@
         <v>0.6927634602373941</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>16</v>
       </c>
@@ -10319,7 +10430,7 @@
         <v>0.39739756126048714</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>17</v>
       </c>
@@ -10349,7 +10460,7 @@
         <v>0.35125049255907653</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>18</v>
       </c>
@@ -10379,7 +10490,7 @@
         <v>0.39229497089246962</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>19</v>
       </c>
@@ -10409,7 +10520,7 @@
         <v>0.18690850859736291</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20</v>
       </c>
@@ -10439,7 +10550,7 @@
         <v>0.3705934890460868</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>21</v>
       </c>
@@ -10469,7 +10580,7 @@
         <v>0.28957151692028005</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>22</v>
       </c>
@@ -10499,7 +10610,7 @@
         <v>0.54593023270626284</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>23</v>
       </c>
@@ -10529,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0</v>
       </c>
@@ -10563,7 +10674,7 @@
         <v>0.7256117554746746</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1</v>
       </c>
@@ -10593,7 +10704,7 @@
         <v>0.55613235416902851</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2</v>
       </c>
@@ -10623,7 +10734,7 @@
         <v>0.6486050228226784</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3</v>
       </c>
@@ -10653,7 +10764,7 @@
         <v>0.89859264817930118</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4</v>
       </c>
@@ -10683,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>5</v>
       </c>
@@ -10713,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>6</v>
       </c>
@@ -10743,7 +10854,7 @@
         <v>0.65535127734923115</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>7</v>
       </c>
@@ -10773,7 +10884,7 @@
         <v>0.62675034770413485</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>8</v>
       </c>
@@ -10803,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>9</v>
       </c>
@@ -10833,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>10</v>
       </c>
@@ -10863,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>11</v>
       </c>
@@ -10893,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>12</v>
       </c>
@@ -10923,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>13</v>
       </c>
@@ -10953,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>14</v>
       </c>
@@ -10983,7 +11094,7 @@
         <v>0.73003368063510254</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>15</v>
       </c>
@@ -11013,7 +11124,7 @@
         <v>0.69519096121017143</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>16</v>
       </c>
@@ -11043,7 +11154,7 @@
         <v>0.42867487297558193</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>17</v>
       </c>
@@ -11073,7 +11184,7 @@
         <v>0.27171194969365781</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>18</v>
       </c>
@@ -11103,7 +11214,7 @@
         <v>0.33316038594810421</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>19</v>
       </c>
@@ -11133,7 +11244,7 @@
         <v>0.22694702315912563</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>20</v>
       </c>
@@ -11163,7 +11274,7 @@
         <v>0.44714894095222157</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>21</v>
       </c>
@@ -11193,7 +11304,7 @@
         <v>0.28885586893454879</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>22</v>
       </c>
@@ -11223,7 +11334,7 @@
         <v>0.60752679765930073</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>23</v>
       </c>
@@ -11253,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0</v>
       </c>
@@ -11287,7 +11398,7 @@
         <v>0.73744029565958702</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1</v>
       </c>
@@ -11317,7 +11428,7 @@
         <v>0.47798176623151162</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2</v>
       </c>
@@ -11347,7 +11458,7 @@
         <v>0.68282299066084617</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3</v>
       </c>
@@ -11377,7 +11488,7 @@
         <v>0.79842545559620537</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4</v>
       </c>
@@ -11407,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>5</v>
       </c>
@@ -11437,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>6</v>
       </c>
@@ -11467,7 +11578,7 @@
         <v>0.56625159446748541</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>7</v>
       </c>
@@ -11497,7 +11608,7 @@
         <v>0.58113034554646248</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>8</v>
       </c>
@@ -11527,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>9</v>
       </c>
@@ -11557,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>10</v>
       </c>
@@ -11587,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>11</v>
       </c>
@@ -11617,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>12</v>
       </c>
@@ -11647,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>13</v>
       </c>
@@ -11677,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>14</v>
       </c>
@@ -11707,7 +11818,7 @@
         <v>0.68359662598930726</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>15</v>
       </c>
@@ -11737,7 +11848,7 @@
         <v>0.69225797069102091</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>16</v>
       </c>
@@ -11767,7 +11878,7 @@
         <v>0.3967639408976113</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>17</v>
       </c>
@@ -11797,7 +11908,7 @@
         <v>0.38112316934177692</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>18</v>
       </c>
@@ -11827,7 +11938,7 @@
         <v>0.42438162342514563</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>19</v>
       </c>
@@ -11857,7 +11968,7 @@
         <v>0.26381529940918486</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>20</v>
       </c>
@@ -11887,7 +11998,7 @@
         <v>0.5576585401413654</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>21</v>
       </c>
@@ -11917,7 +12028,7 @@
         <v>0.36128355172855575</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>22</v>
       </c>
@@ -11947,7 +12058,7 @@
         <v>0.83107422170361001</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>23</v>
       </c>
@@ -11977,7 +12088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0</v>
       </c>
@@ -12011,7 +12122,7 @@
         <v>0.79442697763306613</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -12041,7 +12152,7 @@
         <v>0.41754797587230957</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -12071,7 +12182,7 @@
         <v>0.60957901603986486</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3</v>
       </c>
@@ -12101,7 +12212,7 @@
         <v>0.73570006772576801</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4</v>
       </c>
@@ -12131,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>5</v>
       </c>
@@ -12161,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>6</v>
       </c>
@@ -12191,7 +12302,7 @@
         <v>0.63215123840130372</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>7</v>
       </c>
@@ -12221,7 +12332,7 @@
         <v>0.58793489782225139</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>8</v>
       </c>
@@ -12251,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>9</v>
       </c>
@@ -12281,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>10</v>
       </c>
@@ -12311,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>11</v>
       </c>
@@ -12341,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>12</v>
       </c>
@@ -12371,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>13</v>
       </c>
@@ -12401,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>14</v>
       </c>
@@ -12431,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>15</v>
       </c>
@@ -12461,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>16</v>
       </c>
@@ -12491,7 +12602,7 @@
         <v>0.63194383095641726</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>17</v>
       </c>
@@ -12521,7 +12632,7 @@
         <v>0.52305398598078079</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>18</v>
       </c>
@@ -12551,7 +12662,7 @@
         <v>0.57668486892787763</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>19</v>
       </c>
@@ -12581,7 +12692,7 @@
         <v>0.34563798346486341</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>20</v>
       </c>
@@ -12611,7 +12722,7 @@
         <v>0.70772257089610113</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>21</v>
       </c>
@@ -12641,7 +12752,7 @@
         <v>0.39885567260156757</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>22</v>
       </c>
@@ -12671,7 +12782,7 @@
         <v>0.89943535450448087</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>23</v>
       </c>
@@ -12701,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -12735,7 +12846,7 @@
         <v>0.80298022518355483</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12765,7 +12876,7 @@
         <v>0.35661705663190296</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2</v>
       </c>
@@ -12795,7 +12906,7 @@
         <v>0.55071896503194107</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3</v>
       </c>
@@ -12825,7 +12936,7 @@
         <v>0.73577778380325976</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4</v>
       </c>
@@ -12855,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5</v>
       </c>
@@ -12885,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6</v>
       </c>
@@ -12915,7 +13026,7 @@
         <v>0.82345160339621182</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>7</v>
       </c>
@@ -12945,7 +13056,7 @@
         <v>0.63782327957044382</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>8</v>
       </c>
@@ -12975,7 +13086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>9</v>
       </c>
@@ -13005,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>10</v>
       </c>
@@ -13035,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>11</v>
       </c>
@@ -13065,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>12</v>
       </c>
@@ -13095,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>13</v>
       </c>
@@ -13125,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>14</v>
       </c>
@@ -13155,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>15</v>
       </c>
@@ -13185,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>16</v>
       </c>
@@ -13215,7 +13326,7 @@
         <v>0.59097984326786501</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>17</v>
       </c>
@@ -13245,7 +13356,7 @@
         <v>0.48396215912519652</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>18</v>
       </c>
@@ -13275,7 +13386,7 @@
         <v>0.65612481299167646</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>19</v>
       </c>
@@ -13305,7 +13416,7 @@
         <v>0.32286703850813375</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>20</v>
       </c>
@@ -13335,7 +13446,7 @@
         <v>0.66822225135879354</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>21</v>
       </c>
@@ -13365,7 +13476,7 @@
         <v>0.45682755804932496</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>22</v>
       </c>
@@ -13395,7 +13506,7 @@
         <v>0.98815305267056586</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>23</v>
       </c>
@@ -13425,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -13459,7 +13570,7 @@
         <v>0.80882853436088953</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1</v>
       </c>
@@ -13489,7 +13600,7 @@
         <v>0.62627535647915777</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2</v>
       </c>
@@ -13519,7 +13630,7 @@
         <v>0.55062063950090123</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3</v>
       </c>
@@ -13549,7 +13660,7 @@
         <v>0.82104543059384605</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -13579,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>5</v>
       </c>
@@ -13609,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>6</v>
       </c>
@@ -13639,7 +13750,7 @@
         <v>0.77554725813757586</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>7</v>
       </c>
@@ -13669,7 +13780,7 @@
         <v>0.60876720861393441</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>8</v>
       </c>
@@ -13699,7 +13810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>9</v>
       </c>
@@ -13729,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>10</v>
       </c>
@@ -13759,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>11</v>
       </c>
@@ -13789,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>12</v>
       </c>
@@ -13819,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>13</v>
       </c>
@@ -13849,7 +13960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>14</v>
       </c>
@@ -13879,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>15</v>
       </c>
@@ -13909,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>16</v>
       </c>
@@ -13939,7 +14050,7 @@
         <v>0.51287727373409664</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>17</v>
       </c>
@@ -13969,7 +14080,7 @@
         <v>0.45332667956188161</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>18</v>
       </c>
@@ -13999,7 +14110,7 @@
         <v>0.65556475707244743</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>19</v>
       </c>
@@ -14029,7 +14140,7 @@
         <v>0.32274454116054913</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>20</v>
       </c>
@@ -14059,7 +14170,7 @@
         <v>0.63054163199646285</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>21</v>
       </c>
@@ -14089,7 +14200,7 @@
         <v>0.45531596727533274</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>22</v>
       </c>
@@ -14119,7 +14230,7 @@
         <v>0.99925808053516374</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>23</v>
       </c>
@@ -14148,8 +14259,20 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L433" t="s">
+        <v>35</v>
+      </c>
+      <c r="M433" t="s">
+        <v>36</v>
+      </c>
+      <c r="N433" t="s">
+        <v>37</v>
+      </c>
+      <c r="O433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0</v>
       </c>
@@ -14182,8 +14305,24 @@
         <f t="shared" ref="J434" si="24">AVERAGE(I434:I457)</f>
         <v>0.80084716547565282</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L434">
+        <f>AVERAGE(C434:C457)</f>
+        <v>1.5724831012523859</v>
+      </c>
+      <c r="M434">
+        <f>AVERAGE(D434:D457)</f>
+        <v>0.37860808406920315</v>
+      </c>
+      <c r="N434">
+        <f>AVERAGE(E434:E457)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O434">
+        <f>AVERAGE(F434:F457)</f>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1</v>
       </c>
@@ -14213,7 +14352,7 @@
         <v>0.53624820377442417</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2</v>
       </c>
@@ -14243,7 +14382,7 @@
         <v>0.33213187057267984</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3</v>
       </c>
@@ -14273,7 +14412,7 @@
         <v>0.67529464818088303</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4</v>
       </c>
@@ -14303,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>5</v>
       </c>
@@ -14333,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>6</v>
       </c>
@@ -14363,7 +14502,7 @@
         <v>0.772670391199063</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>7</v>
       </c>
@@ -14393,7 +14532,7 @@
         <v>0.60549591216535803</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>8</v>
       </c>
@@ -14423,7 +14562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>9</v>
       </c>
@@ -14453,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>10</v>
       </c>
@@ -14483,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>11</v>
       </c>
@@ -14513,7 +14652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>12</v>
       </c>
@@ -14543,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>13</v>
       </c>
@@ -14573,7 +14712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>14</v>
       </c>
@@ -14603,7 +14742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>15</v>
       </c>
@@ -14633,7 +14772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>16</v>
       </c>
@@ -14663,7 +14802,7 @@
         <v>0.63053235481546355</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>17</v>
       </c>
@@ -14693,7 +14832,7 @@
         <v>0.55306458029289607</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>18</v>
       </c>
@@ -14723,7 +14862,7 @@
         <v>0.54139232336513465</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>19</v>
       </c>
@@ -14753,7 +14892,7 @@
         <v>0.41692104597378066</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>20</v>
       </c>
@@ -14783,7 +14922,7 @@
         <v>0.62270534504783059</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>21</v>
       </c>
@@ -14813,7 +14952,7 @@
         <v>0.48467474951307715</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>22</v>
       </c>
@@ -14843,7 +14982,7 @@
         <v>1.0492005465150829</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>23</v>
       </c>
@@ -14873,7 +15012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0</v>
       </c>
@@ -14907,7 +15046,7 @@
         <v>0.79461276341289067</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1</v>
       </c>
@@ -14937,7 +15076,7 @@
         <v>0.50581231183212538</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2</v>
       </c>
@@ -14967,7 +15106,7 @@
         <v>0.45786036295581661</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3</v>
       </c>
@@ -14997,7 +15136,7 @@
         <v>0.62850098421028122</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4</v>
       </c>
@@ -15027,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>5</v>
       </c>
@@ -15057,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>6</v>
       </c>
@@ -15087,7 +15226,7 @@
         <v>0.72468195865772966</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>7</v>
       </c>
@@ -15117,7 +15256,7 @@
         <v>0.55722467729807545</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>8</v>
       </c>
@@ -15147,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>9</v>
       </c>
@@ -15177,7 +15316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>10</v>
       </c>
@@ -15207,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>11</v>
       </c>
@@ -15237,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>12</v>
       </c>
@@ -15267,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>13</v>
       </c>
@@ -15297,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>14</v>
       </c>
@@ -15327,7 +15466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>15</v>
       </c>
@@ -15357,7 +15496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>16</v>
       </c>
@@ -15387,7 +15526,7 @@
         <v>0.63291040986061731</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>17</v>
       </c>
@@ -15417,7 +15556,7 @@
         <v>0.58464662564950387</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>18</v>
       </c>
@@ -15447,7 +15586,7 @@
         <v>0.4624241071647977</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>19</v>
       </c>
@@ -15477,7 +15616,7 @@
         <v>0.36836557332089587</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>20</v>
       </c>
@@ -15507,7 +15646,7 @@
         <v>0.71035918595141123</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>21</v>
       </c>
@@ -15537,7 +15676,7 @@
         <v>0.42622186996983918</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>22</v>
       </c>
@@ -15567,7 +15706,7 @@
         <v>1.0116982550382836</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>23</v>
       </c>
@@ -15597,7 +15736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0</v>
       </c>
@@ -15631,7 +15770,7 @@
         <v>0.7064844083280043</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -15661,7 +15800,7 @@
         <v>0.86406992948187966</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -15691,7 +15830,7 @@
         <v>0.34682282934583014</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3</v>
       </c>
@@ -15721,7 +15860,7 @@
         <v>0.41452361337594862</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4</v>
       </c>
@@ -15751,7 +15890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>5</v>
       </c>
@@ -15781,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>6</v>
       </c>
@@ -15811,7 +15950,7 @@
         <v>0.40348601707489457</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>7</v>
       </c>
@@ -15841,7 +15980,7 @@
         <v>0.47768628154530074</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>8</v>
       </c>
@@ -15871,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>9</v>
       </c>
@@ -15901,7 +16040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>10</v>
       </c>
@@ -15931,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>11</v>
       </c>
@@ -15961,7 +16100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>12</v>
       </c>
@@ -15991,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>13</v>
       </c>
@@ -16021,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>14</v>
       </c>
@@ -16051,7 +16190,7 @@
         <v>0.95403654368095614</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>15</v>
       </c>
@@ -16081,7 +16220,7 @@
         <v>0.65372045590571437</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>16</v>
       </c>
@@ -16111,7 +16250,7 @@
         <v>0.42704929687077914</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>17</v>
       </c>
@@ -16141,7 +16280,7 @@
         <v>0.37648290959810143</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>18</v>
       </c>
@@ -16171,7 +16310,7 @@
         <v>0.44797396982998972</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>19</v>
       </c>
@@ -16201,7 +16340,7 @@
         <v>0.23836698434844986</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>20</v>
       </c>
@@ -16231,7 +16370,7 @@
         <v>0.45051048858851689</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>21</v>
       </c>
@@ -16261,7 +16400,7 @@
         <v>0.27112615805524942</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>22</v>
       </c>
@@ -16291,7 +16430,7 @@
         <v>0.62977032217049178</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>23</v>
       </c>
@@ -16321,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>0</v>
       </c>
@@ -16355,7 +16494,7 @@
         <v>0.78191779499596858</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1</v>
       </c>
@@ -16385,7 +16524,7 @@
         <v>0.95849435721281517</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2</v>
       </c>
@@ -16415,7 +16554,7 @@
         <v>0.36705630875774919</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3</v>
       </c>
@@ -16445,7 +16584,7 @@
         <v>0.56466044192999576</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>4</v>
       </c>
@@ -16475,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>5</v>
       </c>
@@ -16505,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>6</v>
       </c>
@@ -16535,7 +16674,7 @@
         <v>0.51158307364493716</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>7</v>
       </c>
@@ -16565,7 +16704,7 @@
         <v>0.69628609711166978</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>8</v>
       </c>
@@ -16595,7 +16734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>9</v>
       </c>
@@ -16625,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>10</v>
       </c>
@@ -16655,7 +16794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>11</v>
       </c>
@@ -16685,7 +16824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>12</v>
       </c>
@@ -16715,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>13</v>
       </c>
@@ -16745,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>14</v>
       </c>
@@ -16775,7 +16914,7 @@
         <v>1.2746902589307594</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>15</v>
       </c>
@@ -16805,7 +16944,7 @@
         <v>0.95813139867075992</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>16</v>
       </c>
@@ -16835,7 +16974,7 @@
         <v>0.62217871283643422</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>17</v>
       </c>
@@ -16865,7 +17004,7 @@
         <v>0.45708262587088699</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>18</v>
       </c>
@@ -16895,7 +17034,7 @@
         <v>0.45527321890763611</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>19</v>
       </c>
@@ -16925,7 +17064,7 @@
         <v>0.22401273347184542</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>20</v>
       </c>
@@ -16955,7 +17094,7 @@
         <v>0.45071020115441074</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>21</v>
       </c>
@@ -16985,7 +17124,7 @@
         <v>0.36841393976006392</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>22</v>
       </c>
@@ -17015,7 +17154,7 @@
         <v>0.85745371164327955</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>23</v>
       </c>
@@ -17045,7 +17184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>0</v>
       </c>
@@ -17079,7 +17218,7 @@
         <v>0.71560272181398654</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>1</v>
       </c>
@@ -17109,7 +17248,7 @@
         <v>0.86279403616285066</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2</v>
       </c>
@@ -17139,7 +17278,7 @@
         <v>0.28583106691923321</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3</v>
       </c>
@@ -17169,7 +17308,7 @@
         <v>0.55150007036340798</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>4</v>
       </c>
@@ -17199,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>5</v>
       </c>
@@ -17229,7 +17368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>6</v>
       </c>
@@ -17259,7 +17398,7 @@
         <v>0.34954207060531262</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>7</v>
       </c>
@@ -17289,7 +17428,7 @@
         <v>0.51750709280025664</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>8</v>
       </c>
@@ -17319,7 +17458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>9</v>
       </c>
@@ -17349,7 +17488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>10</v>
       </c>
@@ -17379,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>11</v>
       </c>
@@ -17409,7 +17548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>12</v>
       </c>
@@ -17439,7 +17578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>13</v>
       </c>
@@ -17469,7 +17608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>14</v>
       </c>
@@ -17499,7 +17638,7 @@
         <v>0.76435808989940945</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>15</v>
       </c>
@@ -17529,7 +17668,7 @@
         <v>0.75882911179987744</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>16</v>
       </c>
@@ -17559,7 +17698,7 @@
         <v>0.52658649864066753</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>17</v>
       </c>
@@ -17589,7 +17728,7 @@
         <v>0.45986454745901229</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>18</v>
       </c>
@@ -17619,7 +17758,7 @@
         <v>0.424909869962103</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>19</v>
       </c>
@@ -17649,7 +17788,7 @@
         <v>0.212600002649278</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>20</v>
       </c>
@@ -17679,7 +17818,7 @@
         <v>0.40279152688364495</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21</v>
       </c>
@@ -17709,7 +17848,7 @@
         <v>0.29108317501846653</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>22</v>
       </c>
@@ -17739,7 +17878,7 @@
         <v>0.76626816437215695</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>23</v>
       </c>
@@ -17769,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>0</v>
       </c>
@@ -17803,7 +17942,7 @@
         <v>0.66894912043794008</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1</v>
       </c>
@@ -17833,7 +17972,7 @@
         <v>0.52780147215521211</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>2</v>
       </c>
@@ -17863,7 +18002,7 @@
         <v>0.38202152321991645</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>3</v>
       </c>
@@ -17893,7 +18032,7 @@
         <v>0.53506024362021298</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>4</v>
       </c>
@@ -17923,7 +18062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>5</v>
       </c>
@@ -17953,7 +18092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>6</v>
       </c>
@@ -17983,7 +18122,7 @@
         <v>0.37618338651000843</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>7</v>
       </c>
@@ -18013,7 +18152,7 @@
         <v>0.41318767951682134</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>8</v>
       </c>
@@ -18043,7 +18182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>9</v>
       </c>
@@ -18073,7 +18212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>10</v>
       </c>
@@ -18103,7 +18242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>11</v>
       </c>
@@ -18133,7 +18272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>12</v>
       </c>
@@ -18163,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>13</v>
       </c>
@@ -18193,7 +18332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>14</v>
       </c>
@@ -18223,7 +18362,7 @@
         <v>0.89006353472940702</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>15</v>
       </c>
@@ -18253,7 +18392,7 @@
         <v>0.65217426330182082</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>16</v>
       </c>
@@ -18283,7 +18422,7 @@
         <v>0.42757504918926692</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>17</v>
       </c>
@@ -18313,7 +18452,7 @@
         <v>0.372197861268451</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>18</v>
       </c>
@@ -18343,7 +18482,7 @@
         <v>0.29336818536993997</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>19</v>
       </c>
@@ -18373,7 +18512,7 @@
         <v>0.16705825033814123</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>20</v>
       </c>
@@ -18403,7 +18542,7 @@
         <v>0.29071475300649791</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21</v>
       </c>
@@ -18433,7 +18572,7 @@
         <v>0.23204407998490711</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>22</v>
       </c>
@@ -18463,7 +18602,7 @@
         <v>0.49532860829995823</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>23</v>
       </c>
@@ -18493,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>0</v>
       </c>
@@ -18527,7 +18666,7 @@
         <v>0.7023399250338227</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>1</v>
       </c>
@@ -18557,7 +18696,7 @@
         <v>0.62163586075363786</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2</v>
       </c>
@@ -18587,7 +18726,7 @@
         <v>0.28423496382257563</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>3</v>
       </c>
@@ -18617,7 +18756,7 @@
         <v>0.45213222251217705</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>4</v>
       </c>
@@ -18647,7 +18786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>5</v>
       </c>
@@ -18677,7 +18816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>6</v>
       </c>
@@ -18707,7 +18846,7 @@
         <v>0.42986424158569131</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>7</v>
       </c>
@@ -18737,7 +18876,7 @@
         <v>0.48590586463436664</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>8</v>
       </c>
@@ -18767,7 +18906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>9</v>
       </c>
@@ -18797,7 +18936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>10</v>
       </c>
@@ -18827,7 +18966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>11</v>
       </c>
@@ -18857,7 +18996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>12</v>
       </c>
@@ -18887,7 +19026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>13</v>
       </c>
@@ -18917,7 +19056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>14</v>
       </c>
@@ -18947,7 +19086,7 @@
         <v>0.95649537412045205</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>15</v>
       </c>
@@ -18977,7 +19116,7 @@
         <v>0.76246993610926694</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>16</v>
       </c>
@@ -19007,7 +19146,7 @@
         <v>0.49174853999802615</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>17</v>
       </c>
@@ -19037,7 +19176,7 @@
         <v>0.37832719341029841</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>18</v>
       </c>
@@ -19067,7 +19206,7 @@
         <v>0.40015698859509896</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>19</v>
       </c>
@@ -19097,7 +19236,7 @@
         <v>0.22646304152650298</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>20</v>
       </c>
@@ -19127,7 +19266,7 @@
         <v>0.40035358817087269</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>21</v>
       </c>
@@ -19157,7 +19296,7 @@
         <v>0.29086981633115305</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>22</v>
       </c>
@@ -19187,7 +19326,7 @@
         <v>0.67550056924162771</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>23</v>
       </c>
@@ -19220,32 +19359,36 @@
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="J44" workbookViewId="0">
+      <selection activeCell="N53" sqref="L53:O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19289,7 +19432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19339,7 +19482,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19369,7 +19512,7 @@
         <v>0.5202342067330582</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19399,7 +19542,7 @@
         <v>0.36972319793825065</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19429,7 +19572,7 @@
         <v>0.7010411682425699</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19459,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19489,7 +19632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19519,7 +19662,7 @@
         <v>0.68758275825949022</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19549,7 +19692,7 @@
         <v>0.62664979956891487</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19579,7 +19722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19609,7 +19752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19639,7 +19782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19669,7 +19812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -19699,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -19729,7 +19872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -19759,7 +19902,7 @@
         <v>0.67618164867829089</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -19789,7 +19932,7 @@
         <v>0.75408231540803927</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -19819,7 +19962,7 @@
         <v>0.40323886008915022</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -19849,7 +19992,7 @@
         <v>0.32555036137844112</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -19879,7 +20022,7 @@
         <v>0.36601644451489623</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -19909,7 +20052,7 @@
         <v>0.22866253450206642</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -19939,7 +20082,7 @@
         <v>0.4358216941868433</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -19969,7 +20112,7 @@
         <v>0.28899686999192165</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -19999,7 +20142,7 @@
         <v>0.69823987874684568</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20029,7 +20172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -20043,7 +20186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20093,7 +20236,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -20123,7 +20266,7 @@
         <v>0.33815848948189398</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -20153,7 +20296,7 @@
         <v>0.38490581799488466</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -20183,7 +20326,7 @@
         <v>0.56219852298119555</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -20213,7 +20356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -20243,7 +20386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -20273,7 +20416,7 @@
         <v>0.55933482687046965</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -20303,7 +20446,7 @@
         <v>0.54469446740917549</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -20333,7 +20476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -20363,7 +20506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -20393,7 +20536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11</v>
       </c>
@@ -20423,7 +20566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>12</v>
       </c>
@@ -20453,7 +20596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>13</v>
       </c>
@@ -20484,7 +20627,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>14</v>
       </c>
@@ -20514,7 +20657,7 @@
         <v>0.62850314321420109</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>15</v>
       </c>
@@ -20544,7 +20687,7 @@
         <v>0.65090448878686691</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>16</v>
       </c>
@@ -20574,7 +20717,7 @@
         <v>0.37270715004527005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>17</v>
       </c>
@@ -20604,7 +20747,7 @@
         <v>0.30293435532909008</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>18</v>
       </c>
@@ -20634,7 +20777,7 @@
         <v>0.3204600786443213</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>19</v>
       </c>
@@ -20665,7 +20808,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20</v>
       </c>
@@ -20695,7 +20838,7 @@
         <v>0.40406000930637448</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>21</v>
       </c>
@@ -20725,7 +20868,7 @@
         <v>0.26767151017692303</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>22</v>
       </c>
@@ -20756,7 +20899,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>23</v>
       </c>
@@ -20786,7 +20929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>35</v>
       </c>
@@ -20800,7 +20943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -20850,7 +20993,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -20880,7 +21023,7 @@
         <v>0.31467240926250273</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -20911,7 +21054,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -20941,7 +21084,7 @@
         <v>0.8719519945544556</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
@@ -20971,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5</v>
       </c>
@@ -21001,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -21031,7 +21174,7 @@
         <v>0.81536283002030929</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7</v>
       </c>
@@ -21061,7 +21204,7 @@
         <v>0.80052700111398634</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8</v>
       </c>
@@ -21091,7 +21234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9</v>
       </c>
@@ -21121,7 +21264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
@@ -21151,7 +21294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11</v>
       </c>
@@ -21181,7 +21324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12</v>
       </c>
@@ -21211,7 +21354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>13</v>
       </c>
@@ -21241,7 +21384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -21271,7 +21414,7 @@
         <v>0.85431565083555061</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>15</v>
       </c>
@@ -21301,7 +21444,7 @@
         <v>0.90687202821044588</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>16</v>
       </c>
@@ -21331,7 +21474,7 @@
         <v>0.54489827646981359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>17</v>
       </c>
@@ -21361,7 +21504,7 @@
         <v>0.44306395063280302</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>18</v>
       </c>
@@ -21391,7 +21534,7 @@
         <v>0.46870389839969878</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>19</v>
       </c>
@@ -21421,7 +21564,7 @@
         <v>0.27707669535142121</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20</v>
       </c>
@@ -21451,7 +21594,7 @@
         <v>0.55950040077595087</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>21</v>
       </c>
@@ -21481,7 +21624,7 @@
         <v>0.37045745649648371</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>22</v>
       </c>
@@ -21511,7 +21654,7 @@
         <v>0.74555164527474227</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>23</v>
       </c>

--- a/Decentralised CES/test_result/Test Data Fair.xlsx
+++ b/Decentralised CES/test_result/Test Data Fair.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25913"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86704f67b923bf99/^.Documents/Work/EE4/Final Year Project/FYP/Decentralised CES/test_result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Skydrive\Documents\Work\EE4\Final Year Project\FYP\Decentralised CES\test_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data Fair" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,43 @@
     <author>Yuchen Wang</author>
   </authors>
   <commentList>
-    <comment ref="K41" authorId="0">
+    <comment ref="I456" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yuchen Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It benefits to be part of a community which provides.
+Rich gets richer?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yuchen Wang</author>
+  </authors>
+  <commentList>
+    <comment ref="K41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0">
+    <comment ref="K47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K50" authorId="0">
+    <comment ref="K50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O56" authorId="0">
+    <comment ref="O56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -848,8 +884,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>62183</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>81935</xdr:rowOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -858,8 +894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11397079" y="83828047"/>
-          <a:ext cx="1587500" cy="846423"/>
+          <a:off x="10018807" y="82685047"/>
+          <a:ext cx="1340026" cy="1715978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,7 +935,16 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> provides</a:t>
+            <a:t> provides.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Rich gets richer?</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1172,31 +1217,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M367" sqref="M367"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I445" sqref="I445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1262,7 +1307,7 @@
         <v>0.71175090575994915</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1292,7 +1337,7 @@
         <v>0.5202342067330582</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1322,7 +1367,7 @@
         <v>0.36972319793825065</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1352,7 +1397,7 @@
         <v>0.7010411682425699</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1382,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1412,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1442,7 +1487,7 @@
         <v>0.68758275825949022</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1472,7 +1517,7 @@
         <v>0.62664979956891487</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1502,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1532,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1562,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1622,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1652,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1682,7 +1727,7 @@
         <v>0.67618164867829089</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1712,7 +1757,7 @@
         <v>0.75408231540803927</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1742,7 +1787,7 @@
         <v>0.40323886008915022</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1772,7 +1817,7 @@
         <v>0.32555036137844112</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>0.36601644451489623</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1832,7 +1877,7 @@
         <v>0.22866253450206642</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1862,7 +1907,7 @@
         <v>0.4358216941868433</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1892,7 +1937,7 @@
         <v>0.28899686999192165</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1922,7 +1967,7 @@
         <v>0.69823987874684568</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1952,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1986,7 +2031,7 @@
         <v>0.77008901021037035</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2016,7 +2061,7 @@
         <v>0.31467240926250273</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2046,7 +2091,7 @@
         <v>0.50918200765072463</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2076,7 +2121,7 @@
         <v>0.8719519945544556</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2106,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -2136,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2166,7 +2211,7 @@
         <v>0.81536283002030929</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2196,7 +2241,7 @@
         <v>0.80052700111398634</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2226,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2256,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -2286,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2316,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -2346,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -2376,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2406,7 +2451,7 @@
         <v>0.85431565083555061</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15</v>
       </c>
@@ -2436,7 +2481,7 @@
         <v>0.90687202821044588</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2466,7 +2511,7 @@
         <v>0.54489827646981359</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17</v>
       </c>
@@ -2496,7 +2541,7 @@
         <v>0.44306395063280302</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -2526,7 +2571,7 @@
         <v>0.46870389839969878</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -2556,7 +2601,7 @@
         <v>0.27707669535142121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -2586,7 +2631,7 @@
         <v>0.55950040077595087</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21</v>
       </c>
@@ -2616,7 +2661,7 @@
         <v>0.37045745649648371</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2646,7 +2691,7 @@
         <v>0.74555164527474227</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2710,7 +2755,7 @@
         <v>0.71461091433466695</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2740,7 +2785,7 @@
         <v>0.52232947951810105</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2770,7 +2815,7 @@
         <v>0.43512904706955319</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2800,7 +2845,7 @@
         <v>0.66300679281916408</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2830,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2860,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2890,7 +2935,7 @@
         <v>0.47287987841530721</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2920,7 +2965,7 @@
         <v>0.58966064195983026</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -2950,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2980,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -3010,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -3040,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -3070,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -3100,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3130,7 +3175,7 @@
         <v>0.63115459493229464</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -3160,7 +3205,7 @@
         <v>0.80694153937818014</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -3190,7 +3235,7 @@
         <v>0.45886031370594393</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3220,7 +3265,7 @@
         <v>0.35014880378741509</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3250,7 +3295,7 @@
         <v>0.37066462497154129</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3280,7 +3325,7 @@
         <v>0.23195061876986484</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -3310,7 +3355,7 @@
         <v>0.49800876634480612</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>21</v>
       </c>
@@ -3340,7 +3385,7 @@
         <v>0.33041673749362299</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>22</v>
       </c>
@@ -3370,7 +3415,7 @@
         <v>0.78951010486638096</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23</v>
       </c>
@@ -3400,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3434,7 +3479,7 @@
         <v>0.67634883240672783</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3464,7 +3509,7 @@
         <v>0.33815848948189398</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3494,7 +3539,7 @@
         <v>0.38490581799488466</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3524,7 +3569,7 @@
         <v>0.56219852298119555</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -3584,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -3614,7 +3659,7 @@
         <v>0.55933482687046965</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
@@ -3644,7 +3689,7 @@
         <v>0.54469446740917549</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8</v>
       </c>
@@ -3674,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
@@ -3704,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
@@ -3734,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -3764,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -3794,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3824,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3854,7 +3899,7 @@
         <v>0.62850314321420109</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15</v>
       </c>
@@ -3884,7 +3929,7 @@
         <v>0.65090448878686691</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
@@ -3914,7 +3959,7 @@
         <v>0.37270715004527005</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>17</v>
       </c>
@@ -3944,7 +3989,7 @@
         <v>0.30293435532909008</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -3974,7 +4019,7 @@
         <v>0.3204600786443213</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -4004,7 +4049,7 @@
         <v>0.20030087748541323</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
@@ -4034,7 +4079,7 @@
         <v>0.40406000930637448</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
@@ -4064,7 +4109,7 @@
         <v>0.26767151017692303</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22</v>
       </c>
@@ -4094,7 +4139,7 @@
         <v>0.69553824003538878</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23</v>
       </c>
@@ -4124,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4158,7 +4203,7 @@
         <v>0.70410267146982919</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4188,7 +4233,7 @@
         <v>0.39307917307850954</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4218,7 +4263,7 @@
         <v>0.48494306221186168</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4248,7 +4293,7 @@
         <v>0.62805074782154402</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4278,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -4308,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
@@ -4338,7 +4383,7 @@
         <v>0.77010642602832147</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -4368,7 +4413,7 @@
         <v>0.62904797313283267</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>8</v>
       </c>
@@ -4398,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9</v>
       </c>
@@ -4428,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
@@ -4458,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11</v>
       </c>
@@ -4488,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>12</v>
       </c>
@@ -4518,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13</v>
       </c>
@@ -4548,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4578,7 +4623,7 @@
         <v>0.6288365222071175</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15</v>
       </c>
@@ -4608,7 +4653,7 @@
         <v>0.66191135995409667</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>16</v>
       </c>
@@ -4638,7 +4683,7 @@
         <v>0.37321587212597052</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>17</v>
       </c>
@@ -4668,7 +4713,7 @@
         <v>0.34916946051202885</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>18</v>
       </c>
@@ -4698,7 +4743,7 @@
         <v>0.3429373828159793</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>19</v>
       </c>
@@ -4728,7 +4773,7 @@
         <v>0.21402500763716989</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
@@ -4758,7 +4803,7 @@
         <v>0.43608479897126268</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>21</v>
       </c>
@@ -4788,7 +4833,7 @@
         <v>0.28911144711483144</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>22</v>
       </c>
@@ -4818,7 +4863,7 @@
         <v>0.6979448816643754</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23</v>
       </c>
@@ -4848,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -4882,7 +4927,7 @@
         <v>0.7370877752160504</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4912,7 +4957,7 @@
         <v>0.44393816069573955</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4942,7 +4987,7 @@
         <v>0.69670998477685775</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4972,7 +5017,7 @@
         <v>0.78952443925650151</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -5002,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -5032,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -5062,7 +5107,7 @@
         <v>0.82769584354325987</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -5092,7 +5137,7 @@
         <v>0.55856641109257577</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -5122,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9</v>
       </c>
@@ -5152,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10</v>
       </c>
@@ -5182,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>11</v>
       </c>
@@ -5212,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -5242,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13</v>
       </c>
@@ -5272,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -5302,7 +5347,7 @@
         <v>0.95336026464228041</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>15</v>
       </c>
@@ -5332,7 +5377,7 @@
         <v>0.83024907316073004</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5362,7 +5407,7 @@
         <v>0.51086447984653793</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>17</v>
       </c>
@@ -5392,7 +5437,7 @@
         <v>0.34194534314092906</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>18</v>
       </c>
@@ -5422,7 +5467,7 @@
         <v>0.34200662384196362</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>19</v>
       </c>
@@ -5452,7 +5497,7 @@
         <v>0.22499149063640622</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -5482,7 +5527,7 @@
         <v>0.38129664822590653</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21</v>
       </c>
@@ -5512,7 +5557,7 @@
         <v>0.2231638210639284</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>22</v>
       </c>
@@ -5542,7 +5587,7 @@
         <v>0.56579402126159595</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23</v>
       </c>
@@ -5572,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -5606,7 +5651,7 @@
         <v>0.71231925027993259</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5636,7 +5681,7 @@
         <v>0.31448049546691487</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -5666,7 +5711,7 @@
         <v>0.70327912552587446</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -5696,7 +5741,7 @@
         <v>0.57911234888702745</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -5726,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -5756,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5786,7 +5831,7 @@
         <v>0.60906978648348253</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -5816,7 +5861,7 @@
         <v>0.56300920320564884</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -5846,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -5876,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -5906,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11</v>
       </c>
@@ -5936,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12</v>
       </c>
@@ -5966,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13</v>
       </c>
@@ -5996,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -6026,7 +6071,7 @@
         <v>0.67565457438636078</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15</v>
       </c>
@@ -6056,7 +6101,7 @@
         <v>0.67955860141133495</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -6086,7 +6131,7 @@
         <v>0.43960720032912076</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -6116,7 +6161,7 @@
         <v>0.36558484877856789</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -6146,7 +6191,7 @@
         <v>0.41533380864187702</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19</v>
       </c>
@@ -6176,7 +6221,7 @@
         <v>0.29200809498262997</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20</v>
       </c>
@@ -6206,7 +6251,7 @@
         <v>0.43276977944968975</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21</v>
       </c>
@@ -6236,7 +6281,7 @@
         <v>0.28456475283841137</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>22</v>
       </c>
@@ -6266,7 +6311,7 @@
         <v>0.74162938633143871</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>23</v>
       </c>
@@ -6296,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6330,7 +6375,7 @@
         <v>0.68744007095399218</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6360,7 +6405,7 @@
         <v>0.31469009189681207</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2</v>
       </c>
@@ -6390,7 +6435,7 @@
         <v>0.69274856401102891</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -6420,7 +6465,7 @@
         <v>0.69027239489400216</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6450,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5</v>
       </c>
@@ -6480,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6510,7 +6555,7 @@
         <v>0.69689307796845379</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7</v>
       </c>
@@ -6540,7 +6585,7 @@
         <v>0.56233712314415873</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8</v>
       </c>
@@ -6570,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9</v>
       </c>
@@ -6600,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10</v>
       </c>
@@ -6630,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
@@ -6660,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12</v>
       </c>
@@ -6690,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>13</v>
       </c>
@@ -6720,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14</v>
       </c>
@@ -6750,7 +6795,7 @@
         <v>0.61702731703052105</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>15</v>
       </c>
@@ -6780,7 +6825,7 @@
         <v>0.53988507917747175</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16</v>
       </c>
@@ -6810,7 +6855,7 @@
         <v>0.48593586676092737</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>17</v>
       </c>
@@ -6840,7 +6885,7 @@
         <v>0.31984664953590103</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18</v>
       </c>
@@ -6870,7 +6915,7 @@
         <v>0.2945954910219597</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>19</v>
       </c>
@@ -6900,7 +6945,7 @@
         <v>0.17972402552085623</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20</v>
       </c>
@@ -6930,7 +6975,7 @@
         <v>0.30714518549332076</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>21</v>
       </c>
@@ -6960,7 +7005,7 @@
         <v>0.23078672211209483</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>22</v>
       </c>
@@ -6990,7 +7035,7 @@
         <v>0.56667411432830539</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>23</v>
       </c>
@@ -7020,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7054,7 +7099,7 @@
         <v>0.71843256171357606</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -7084,7 +7129,7 @@
         <v>0.29508704499895227</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2</v>
       </c>
@@ -7114,7 +7159,7 @@
         <v>0.62261593296264417</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -7144,7 +7189,7 @@
         <v>0.6515074889829936</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -7174,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -7204,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>6</v>
       </c>
@@ -7234,7 +7279,7 @@
         <v>0.43628141528741843</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7</v>
       </c>
@@ -7264,7 +7309,7 @@
         <v>0.38496791944087327</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -7294,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -7324,7 +7369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10</v>
       </c>
@@ -7354,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>11</v>
       </c>
@@ -7384,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>12</v>
       </c>
@@ -7414,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -7444,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>14</v>
       </c>
@@ -7474,7 +7519,7 @@
         <v>0.95743673141052943</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>15</v>
       </c>
@@ -7504,7 +7549,7 @@
         <v>0.82518484426759187</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>16</v>
       </c>
@@ -7534,7 +7579,7 @@
         <v>0.58653327027534863</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>17</v>
       </c>
@@ -7564,7 +7609,7 @@
         <v>0.41840548173622738</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>18</v>
       </c>
@@ -7594,7 +7639,7 @@
         <v>0.388943333642707</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>19</v>
       </c>
@@ -7624,7 +7669,7 @@
         <v>0.24404859384086916</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20</v>
       </c>
@@ -7654,7 +7699,7 @@
         <v>0.43145534601818453</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>21</v>
       </c>
@@ -7684,7 +7729,7 @@
         <v>0.26052885936528197</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>22</v>
       </c>
@@ -7714,7 +7759,7 @@
         <v>0.73938521889620223</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>23</v>
       </c>
@@ -7744,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -7778,7 +7823,7 @@
         <v>0.76559495845599423</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7808,7 +7853,7 @@
         <v>0.2031830607122796</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2</v>
       </c>
@@ -7838,7 +7883,7 @@
         <v>0.79062083345046996</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>3</v>
       </c>
@@ -7868,7 +7913,7 @@
         <v>0.69878340732536626</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -7898,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -7928,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>6</v>
       </c>
@@ -7958,7 +8003,7 @@
         <v>0.74131090274383138</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7</v>
       </c>
@@ -7988,7 +8033,7 @@
         <v>0.70462589819221599</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8</v>
       </c>
@@ -8018,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>9</v>
       </c>
@@ -8048,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10</v>
       </c>
@@ -8078,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>11</v>
       </c>
@@ -8108,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>12</v>
       </c>
@@ -8138,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13</v>
       </c>
@@ -8168,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -8198,7 +8243,7 @@
         <v>1.0692420967597509</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>15</v>
       </c>
@@ -8228,7 +8273,7 @@
         <v>0.88533923086247912</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>16</v>
       </c>
@@ -8258,7 +8303,7 @@
         <v>0.62343645540658676</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>17</v>
       </c>
@@ -8288,7 +8333,7 @@
         <v>0.44593309119675356</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>18</v>
       </c>
@@ -8318,7 +8363,7 @@
         <v>0.42225934652457464</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>19</v>
       </c>
@@ -8348,7 +8393,7 @@
         <v>0.293497954218012</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20</v>
       </c>
@@ -8378,7 +8423,7 @@
         <v>0.43538355115264737</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>21</v>
       </c>
@@ -8408,7 +8453,7 @@
         <v>0.3204713406122392</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>22</v>
       </c>
@@ -8438,7 +8483,7 @@
         <v>0.74019183378665387</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>23</v>
       </c>
@@ -8468,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -8502,7 +8547,7 @@
         <v>0.81357803503151704</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -8532,7 +8577,7 @@
         <v>0.59477565501654051</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -8562,7 +8607,7 @@
         <v>0.51137810314456766</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3</v>
       </c>
@@ -8592,7 +8637,7 @@
         <v>0.75019965666097521</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -8622,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -8652,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6</v>
       </c>
@@ -8682,7 +8727,7 @@
         <v>0.78488923176141645</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>7</v>
       </c>
@@ -8712,7 +8757,7 @@
         <v>0.76928216765532942</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>8</v>
       </c>
@@ -8742,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9</v>
       </c>
@@ -8772,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>10</v>
       </c>
@@ -8802,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11</v>
       </c>
@@ -8832,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12</v>
       </c>
@@ -8862,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>13</v>
       </c>
@@ -8892,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>14</v>
       </c>
@@ -8922,7 +8967,7 @@
         <v>0.92444008850383041</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>15</v>
       </c>
@@ -8952,7 +8997,7 @@
         <v>0.94389942234128654</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16</v>
       </c>
@@ -8982,7 +9027,7 @@
         <v>0.55310344223977848</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>17</v>
       </c>
@@ -9012,7 +9057,7 @@
         <v>0.51759867461144482</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>18</v>
       </c>
@@ -9042,7 +9087,7 @@
         <v>0.57605663444615895</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>19</v>
       </c>
@@ -9072,7 +9117,7 @@
         <v>0.37771300494002175</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>20</v>
       </c>
@@ -9102,7 +9147,7 @@
         <v>0.70807951324783591</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>21</v>
       </c>
@@ -9132,7 +9177,7 @@
         <v>0.45757776696982111</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>22</v>
       </c>
@@ -9162,7 +9207,7 @@
         <v>1.0568794792174006</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>23</v>
       </c>
@@ -9192,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
@@ -9226,7 +9271,7 @@
         <v>0.83186668716715184</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -9256,7 +9301,7 @@
         <v>0.87294204975531753</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -9286,7 +9331,7 @@
         <v>0.6255831272298904</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3</v>
       </c>
@@ -9316,7 +9361,7 @@
         <v>0.97269511256666918</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -9346,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5</v>
       </c>
@@ -9376,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
@@ -9406,7 +9451,7 @@
         <v>0.78469395710129919</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
@@ -9436,7 +9481,7 @@
         <v>0.8130651174400505</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>8</v>
       </c>
@@ -9466,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>9</v>
       </c>
@@ -9496,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>10</v>
       </c>
@@ -9526,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11</v>
       </c>
@@ -9556,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12</v>
       </c>
@@ -9586,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>13</v>
       </c>
@@ -9616,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
@@ -9646,7 +9691,7 @@
         <v>0.77974899122061514</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>15</v>
       </c>
@@ -9676,7 +9721,7 @@
         <v>0.75452273095000677</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16</v>
       </c>
@@ -9706,7 +9751,7 @@
         <v>0.55759951146947573</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17</v>
       </c>
@@ -9736,7 +9781,7 @@
         <v>0.51816990450471367</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18</v>
       </c>
@@ -9766,7 +9811,7 @@
         <v>0.57288943215579835</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>19</v>
       </c>
@@ -9796,7 +9841,7 @@
         <v>0.36171963347960767</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>20</v>
       </c>
@@ -9826,7 +9871,7 @@
         <v>0.74664395517418913</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>21</v>
       </c>
@@ -9856,7 +9901,7 @@
         <v>0.4833441413823909</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>22</v>
       </c>
@@ -9886,7 +9931,7 @@
         <v>1.1211828275816154</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>23</v>
       </c>
@@ -9916,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0</v>
       </c>
@@ -9950,7 +9995,7 @@
         <v>0.7034291590077526</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -9980,7 +10025,7 @@
         <v>0.63374272005167953</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -10010,7 +10055,7 @@
         <v>0.43703418302665764</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -10040,7 +10085,7 @@
         <v>0.84728722245740073</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -10070,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5</v>
       </c>
@@ -10100,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -10130,7 +10175,7 @@
         <v>0.52144699568173769</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>7</v>
       </c>
@@ -10160,7 +10205,7 @@
         <v>0.63013146170306455</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>8</v>
       </c>
@@ -10190,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>9</v>
       </c>
@@ -10220,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>10</v>
       </c>
@@ -10250,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>11</v>
       </c>
@@ -10280,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>12</v>
       </c>
@@ -10310,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>13</v>
       </c>
@@ -10340,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>14</v>
       </c>
@@ -10370,7 +10415,7 @@
         <v>0.58594700104610187</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>15</v>
       </c>
@@ -10400,7 +10445,7 @@
         <v>0.6927634602373941</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>16</v>
       </c>
@@ -10430,7 +10475,7 @@
         <v>0.39739756126048714</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17</v>
       </c>
@@ -10460,7 +10505,7 @@
         <v>0.35125049255907653</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>18</v>
       </c>
@@ -10490,7 +10535,7 @@
         <v>0.39229497089246962</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>19</v>
       </c>
@@ -10520,7 +10565,7 @@
         <v>0.18690850859736291</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>20</v>
       </c>
@@ -10550,7 +10595,7 @@
         <v>0.3705934890460868</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>21</v>
       </c>
@@ -10580,7 +10625,7 @@
         <v>0.28957151692028005</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>22</v>
       </c>
@@ -10610,7 +10655,7 @@
         <v>0.54593023270626284</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>23</v>
       </c>
@@ -10640,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -10674,7 +10719,7 @@
         <v>0.7256117554746746</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -10704,7 +10749,7 @@
         <v>0.55613235416902851</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -10734,7 +10779,7 @@
         <v>0.6486050228226784</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3</v>
       </c>
@@ -10764,7 +10809,7 @@
         <v>0.89859264817930118</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>4</v>
       </c>
@@ -10794,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>5</v>
       </c>
@@ -10824,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>6</v>
       </c>
@@ -10854,7 +10899,7 @@
         <v>0.65535127734923115</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>7</v>
       </c>
@@ -10884,7 +10929,7 @@
         <v>0.62675034770413485</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8</v>
       </c>
@@ -10914,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>9</v>
       </c>
@@ -10944,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>10</v>
       </c>
@@ -10974,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>11</v>
       </c>
@@ -11004,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>12</v>
       </c>
@@ -11034,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>13</v>
       </c>
@@ -11064,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>14</v>
       </c>
@@ -11094,7 +11139,7 @@
         <v>0.73003368063510254</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>15</v>
       </c>
@@ -11124,7 +11169,7 @@
         <v>0.69519096121017143</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>16</v>
       </c>
@@ -11154,7 +11199,7 @@
         <v>0.42867487297558193</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>17</v>
       </c>
@@ -11184,7 +11229,7 @@
         <v>0.27171194969365781</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>18</v>
       </c>
@@ -11214,7 +11259,7 @@
         <v>0.33316038594810421</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>19</v>
       </c>
@@ -11244,7 +11289,7 @@
         <v>0.22694702315912563</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>20</v>
       </c>
@@ -11274,7 +11319,7 @@
         <v>0.44714894095222157</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>21</v>
       </c>
@@ -11304,7 +11349,7 @@
         <v>0.28885586893454879</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>22</v>
       </c>
@@ -11334,7 +11379,7 @@
         <v>0.60752679765930073</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>23</v>
       </c>
@@ -11364,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0</v>
       </c>
@@ -11398,7 +11443,7 @@
         <v>0.73744029565958702</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -11428,7 +11473,7 @@
         <v>0.47798176623151162</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -11458,7 +11503,7 @@
         <v>0.68282299066084617</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3</v>
       </c>
@@ -11488,7 +11533,7 @@
         <v>0.79842545559620537</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>4</v>
       </c>
@@ -11518,7 +11563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5</v>
       </c>
@@ -11548,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -11578,7 +11623,7 @@
         <v>0.56625159446748541</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>7</v>
       </c>
@@ -11608,7 +11653,7 @@
         <v>0.58113034554646248</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>8</v>
       </c>
@@ -11638,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>9</v>
       </c>
@@ -11668,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>10</v>
       </c>
@@ -11698,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>11</v>
       </c>
@@ -11728,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>12</v>
       </c>
@@ -11758,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>13</v>
       </c>
@@ -11788,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14</v>
       </c>
@@ -11818,7 +11863,7 @@
         <v>0.68359662598930726</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>15</v>
       </c>
@@ -11848,7 +11893,7 @@
         <v>0.69225797069102091</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>16</v>
       </c>
@@ -11878,7 +11923,7 @@
         <v>0.3967639408976113</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>17</v>
       </c>
@@ -11908,7 +11953,7 @@
         <v>0.38112316934177692</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18</v>
       </c>
@@ -11938,7 +11983,7 @@
         <v>0.42438162342514563</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>19</v>
       </c>
@@ -11968,7 +12013,7 @@
         <v>0.26381529940918486</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>20</v>
       </c>
@@ -11998,7 +12043,7 @@
         <v>0.5576585401413654</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>21</v>
       </c>
@@ -12028,7 +12073,7 @@
         <v>0.36128355172855575</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>22</v>
       </c>
@@ -12058,7 +12103,7 @@
         <v>0.83107422170361001</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>23</v>
       </c>
@@ -12088,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>0</v>
       </c>
@@ -12122,7 +12167,7 @@
         <v>0.79442697763306613</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1</v>
       </c>
@@ -12152,7 +12197,7 @@
         <v>0.41754797587230957</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -12182,7 +12227,7 @@
         <v>0.60957901603986486</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>3</v>
       </c>
@@ -12212,7 +12257,7 @@
         <v>0.73570006772576801</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>4</v>
       </c>
@@ -12242,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>5</v>
       </c>
@@ -12272,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -12302,7 +12347,7 @@
         <v>0.63215123840130372</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>7</v>
       </c>
@@ -12332,7 +12377,7 @@
         <v>0.58793489782225139</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>8</v>
       </c>
@@ -12362,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>9</v>
       </c>
@@ -12392,7 +12437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10</v>
       </c>
@@ -12422,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>11</v>
       </c>
@@ -12452,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>12</v>
       </c>
@@ -12482,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>13</v>
       </c>
@@ -12512,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>14</v>
       </c>
@@ -12542,7 +12587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>15</v>
       </c>
@@ -12572,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>16</v>
       </c>
@@ -12602,7 +12647,7 @@
         <v>0.63194383095641726</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>17</v>
       </c>
@@ -12632,7 +12677,7 @@
         <v>0.52305398598078079</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>18</v>
       </c>
@@ -12662,7 +12707,7 @@
         <v>0.57668486892787763</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>19</v>
       </c>
@@ -12692,7 +12737,7 @@
         <v>0.34563798346486341</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>20</v>
       </c>
@@ -12722,7 +12767,7 @@
         <v>0.70772257089610113</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>21</v>
       </c>
@@ -12752,7 +12797,7 @@
         <v>0.39885567260156757</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>22</v>
       </c>
@@ -12782,7 +12827,7 @@
         <v>0.89943535450448087</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>23</v>
       </c>
@@ -12812,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0</v>
       </c>
@@ -12846,7 +12891,7 @@
         <v>0.80298022518355483</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12876,7 +12921,7 @@
         <v>0.35661705663190296</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -12906,7 +12951,7 @@
         <v>0.55071896503194107</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3</v>
       </c>
@@ -12936,7 +12981,7 @@
         <v>0.73577778380325976</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>4</v>
       </c>
@@ -12966,7 +13011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -12996,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6</v>
       </c>
@@ -13026,7 +13071,7 @@
         <v>0.82345160339621182</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>7</v>
       </c>
@@ -13056,7 +13101,7 @@
         <v>0.63782327957044382</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>8</v>
       </c>
@@ -13086,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9</v>
       </c>
@@ -13116,7 +13161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>10</v>
       </c>
@@ -13146,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>11</v>
       </c>
@@ -13176,7 +13221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>12</v>
       </c>
@@ -13206,7 +13251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>13</v>
       </c>
@@ -13236,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>14</v>
       </c>
@@ -13266,7 +13311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>15</v>
       </c>
@@ -13296,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>16</v>
       </c>
@@ -13326,7 +13371,7 @@
         <v>0.59097984326786501</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>17</v>
       </c>
@@ -13356,7 +13401,7 @@
         <v>0.48396215912519652</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>18</v>
       </c>
@@ -13386,7 +13431,7 @@
         <v>0.65612481299167646</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>19</v>
       </c>
@@ -13416,7 +13461,7 @@
         <v>0.32286703850813375</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>20</v>
       </c>
@@ -13446,7 +13491,7 @@
         <v>0.66822225135879354</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>21</v>
       </c>
@@ -13476,7 +13521,7 @@
         <v>0.45682755804932496</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>22</v>
       </c>
@@ -13506,7 +13551,7 @@
         <v>0.98815305267056586</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>23</v>
       </c>
@@ -13536,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>0</v>
       </c>
@@ -13570,7 +13615,7 @@
         <v>0.80882853436088953</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1</v>
       </c>
@@ -13600,7 +13645,7 @@
         <v>0.62627535647915777</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -13630,7 +13675,7 @@
         <v>0.55062063950090123</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>3</v>
       </c>
@@ -13660,7 +13705,7 @@
         <v>0.82104543059384605</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4</v>
       </c>
@@ -13690,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>5</v>
       </c>
@@ -13720,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>6</v>
       </c>
@@ -13750,7 +13795,7 @@
         <v>0.77554725813757586</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>7</v>
       </c>
@@ -13780,7 +13825,7 @@
         <v>0.60876720861393441</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>8</v>
       </c>
@@ -13810,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9</v>
       </c>
@@ -13840,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>10</v>
       </c>
@@ -13870,7 +13915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>11</v>
       </c>
@@ -13900,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>12</v>
       </c>
@@ -13930,7 +13975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>13</v>
       </c>
@@ -13960,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>14</v>
       </c>
@@ -13990,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>15</v>
       </c>
@@ -14020,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>16</v>
       </c>
@@ -14050,7 +14095,7 @@
         <v>0.51287727373409664</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>17</v>
       </c>
@@ -14080,7 +14125,7 @@
         <v>0.45332667956188161</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>18</v>
       </c>
@@ -14110,7 +14155,7 @@
         <v>0.65556475707244743</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>19</v>
       </c>
@@ -14140,7 +14185,7 @@
         <v>0.32274454116054913</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>20</v>
       </c>
@@ -14170,7 +14215,7 @@
         <v>0.63054163199646285</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>21</v>
       </c>
@@ -14200,7 +14245,7 @@
         <v>0.45531596727533274</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>22</v>
       </c>
@@ -14230,7 +14275,7 @@
         <v>0.99925808053516374</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>23</v>
       </c>
@@ -14272,7 +14317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>0</v>
       </c>
@@ -14322,7 +14367,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1</v>
       </c>
@@ -14352,7 +14397,7 @@
         <v>0.53624820377442417</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -14382,7 +14427,7 @@
         <v>0.33213187057267984</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>3</v>
       </c>
@@ -14412,7 +14457,7 @@
         <v>0.67529464818088303</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>4</v>
       </c>
@@ -14442,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>5</v>
       </c>
@@ -14472,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>6</v>
       </c>
@@ -14502,7 +14547,7 @@
         <v>0.772670391199063</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>7</v>
       </c>
@@ -14532,7 +14577,7 @@
         <v>0.60549591216535803</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>8</v>
       </c>
@@ -14562,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>9</v>
       </c>
@@ -14592,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>10</v>
       </c>
@@ -14622,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>11</v>
       </c>
@@ -14652,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>12</v>
       </c>
@@ -14682,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>13</v>
       </c>
@@ -14712,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>14</v>
       </c>
@@ -14742,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>15</v>
       </c>
@@ -14772,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>16</v>
       </c>
@@ -14802,7 +14847,7 @@
         <v>0.63053235481546355</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>17</v>
       </c>
@@ -14832,7 +14877,7 @@
         <v>0.55306458029289607</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>18</v>
       </c>
@@ -14862,7 +14907,7 @@
         <v>0.54139232336513465</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>19</v>
       </c>
@@ -14892,7 +14937,7 @@
         <v>0.41692104597378066</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>20</v>
       </c>
@@ -14922,7 +14967,7 @@
         <v>0.62270534504783059</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>21</v>
       </c>
@@ -14952,7 +14997,7 @@
         <v>0.48467474951307715</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>22</v>
       </c>
@@ -14982,7 +15027,7 @@
         <v>1.0492005465150829</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>23</v>
       </c>
@@ -15012,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>0</v>
       </c>
@@ -15046,7 +15091,7 @@
         <v>0.79461276341289067</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>1</v>
       </c>
@@ -15076,7 +15121,7 @@
         <v>0.50581231183212538</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -15106,7 +15151,7 @@
         <v>0.45786036295581661</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3</v>
       </c>
@@ -15136,7 +15181,7 @@
         <v>0.62850098421028122</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4</v>
       </c>
@@ -15166,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>5</v>
       </c>
@@ -15196,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>6</v>
       </c>
@@ -15226,7 +15271,7 @@
         <v>0.72468195865772966</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>7</v>
       </c>
@@ -15256,7 +15301,7 @@
         <v>0.55722467729807545</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>8</v>
       </c>
@@ -15286,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>9</v>
       </c>
@@ -15316,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>10</v>
       </c>
@@ -15346,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>11</v>
       </c>
@@ -15376,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>12</v>
       </c>
@@ -15406,7 +15451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>13</v>
       </c>
@@ -15436,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>14</v>
       </c>
@@ -15466,7 +15511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>15</v>
       </c>
@@ -15496,7 +15541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>16</v>
       </c>
@@ -15526,7 +15571,7 @@
         <v>0.63291040986061731</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>17</v>
       </c>
@@ -15556,7 +15601,7 @@
         <v>0.58464662564950387</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>18</v>
       </c>
@@ -15586,7 +15631,7 @@
         <v>0.4624241071647977</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>19</v>
       </c>
@@ -15616,7 +15661,7 @@
         <v>0.36836557332089587</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>20</v>
       </c>
@@ -15646,7 +15691,7 @@
         <v>0.71035918595141123</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>21</v>
       </c>
@@ -15676,7 +15721,7 @@
         <v>0.42622186996983918</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>22</v>
       </c>
@@ -15706,7 +15751,7 @@
         <v>1.0116982550382836</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>23</v>
       </c>
@@ -15736,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>0</v>
       </c>
@@ -15770,7 +15815,7 @@
         <v>0.7064844083280043</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>1</v>
       </c>
@@ -15800,7 +15845,7 @@
         <v>0.86406992948187966</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -15830,7 +15875,7 @@
         <v>0.34682282934583014</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>3</v>
       </c>
@@ -15860,7 +15905,7 @@
         <v>0.41452361337594862</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>4</v>
       </c>
@@ -15890,7 +15935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>5</v>
       </c>
@@ -15920,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>6</v>
       </c>
@@ -15950,7 +15995,7 @@
         <v>0.40348601707489457</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>7</v>
       </c>
@@ -15980,7 +16025,7 @@
         <v>0.47768628154530074</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>8</v>
       </c>
@@ -16010,7 +16055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>9</v>
       </c>
@@ -16040,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>10</v>
       </c>
@@ -16070,7 +16115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>11</v>
       </c>
@@ -16100,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>12</v>
       </c>
@@ -16130,7 +16175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>13</v>
       </c>
@@ -16160,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>14</v>
       </c>
@@ -16190,7 +16235,7 @@
         <v>0.95403654368095614</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>15</v>
       </c>
@@ -16220,7 +16265,7 @@
         <v>0.65372045590571437</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>16</v>
       </c>
@@ -16250,7 +16295,7 @@
         <v>0.42704929687077914</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>17</v>
       </c>
@@ -16280,7 +16325,7 @@
         <v>0.37648290959810143</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>18</v>
       </c>
@@ -16310,7 +16355,7 @@
         <v>0.44797396982998972</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>19</v>
       </c>
@@ -16340,7 +16385,7 @@
         <v>0.23836698434844986</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>20</v>
       </c>
@@ -16370,7 +16415,7 @@
         <v>0.45051048858851689</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>21</v>
       </c>
@@ -16400,7 +16445,7 @@
         <v>0.27112615805524942</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>22</v>
       </c>
@@ -16430,7 +16475,7 @@
         <v>0.62977032217049178</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>23</v>
       </c>
@@ -16460,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>0</v>
       </c>
@@ -16494,7 +16539,7 @@
         <v>0.78191779499596858</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1</v>
       </c>
@@ -16524,7 +16569,7 @@
         <v>0.95849435721281517</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -16554,7 +16599,7 @@
         <v>0.36705630875774919</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>3</v>
       </c>
@@ -16584,7 +16629,7 @@
         <v>0.56466044192999576</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>4</v>
       </c>
@@ -16614,7 +16659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>5</v>
       </c>
@@ -16644,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>6</v>
       </c>
@@ -16674,7 +16719,7 @@
         <v>0.51158307364493716</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>7</v>
       </c>
@@ -16704,7 +16749,7 @@
         <v>0.69628609711166978</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>8</v>
       </c>
@@ -16734,7 +16779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>9</v>
       </c>
@@ -16764,7 +16809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>10</v>
       </c>
@@ -16794,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>11</v>
       </c>
@@ -16824,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>12</v>
       </c>
@@ -16854,7 +16899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>13</v>
       </c>
@@ -16884,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>14</v>
       </c>
@@ -16914,7 +16959,7 @@
         <v>1.2746902589307594</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>15</v>
       </c>
@@ -16944,7 +16989,7 @@
         <v>0.95813139867075992</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>16</v>
       </c>
@@ -16974,7 +17019,7 @@
         <v>0.62217871283643422</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>17</v>
       </c>
@@ -17004,7 +17049,7 @@
         <v>0.45708262587088699</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>18</v>
       </c>
@@ -17034,7 +17079,7 @@
         <v>0.45527321890763611</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>19</v>
       </c>
@@ -17064,7 +17109,7 @@
         <v>0.22401273347184542</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>20</v>
       </c>
@@ -17094,7 +17139,7 @@
         <v>0.45071020115441074</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>21</v>
       </c>
@@ -17124,7 +17169,7 @@
         <v>0.36841393976006392</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>22</v>
       </c>
@@ -17154,7 +17199,7 @@
         <v>0.85745371164327955</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>23</v>
       </c>
@@ -17184,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>0</v>
       </c>
@@ -17218,7 +17263,7 @@
         <v>0.71560272181398654</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>1</v>
       </c>
@@ -17248,7 +17293,7 @@
         <v>0.86279403616285066</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2</v>
       </c>
@@ -17278,7 +17323,7 @@
         <v>0.28583106691923321</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>3</v>
       </c>
@@ -17308,7 +17353,7 @@
         <v>0.55150007036340798</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>4</v>
       </c>
@@ -17338,7 +17383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5</v>
       </c>
@@ -17368,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>6</v>
       </c>
@@ -17398,7 +17443,7 @@
         <v>0.34954207060531262</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>7</v>
       </c>
@@ -17428,7 +17473,7 @@
         <v>0.51750709280025664</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>8</v>
       </c>
@@ -17458,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>9</v>
       </c>
@@ -17488,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>10</v>
       </c>
@@ -17518,7 +17563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>11</v>
       </c>
@@ -17548,7 +17593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>12</v>
       </c>
@@ -17578,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>13</v>
       </c>
@@ -17608,7 +17653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>14</v>
       </c>
@@ -17638,7 +17683,7 @@
         <v>0.76435808989940945</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>15</v>
       </c>
@@ -17668,7 +17713,7 @@
         <v>0.75882911179987744</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>16</v>
       </c>
@@ -17698,7 +17743,7 @@
         <v>0.52658649864066753</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>17</v>
       </c>
@@ -17728,7 +17773,7 @@
         <v>0.45986454745901229</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>18</v>
       </c>
@@ -17758,7 +17803,7 @@
         <v>0.424909869962103</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>19</v>
       </c>
@@ -17788,7 +17833,7 @@
         <v>0.212600002649278</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>20</v>
       </c>
@@ -17818,7 +17863,7 @@
         <v>0.40279152688364495</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>21</v>
       </c>
@@ -17848,7 +17893,7 @@
         <v>0.29108317501846653</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>22</v>
       </c>
@@ -17878,7 +17923,7 @@
         <v>0.76626816437215695</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>23</v>
       </c>
@@ -17908,7 +17953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>0</v>
       </c>
@@ -17942,7 +17987,7 @@
         <v>0.66894912043794008</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1</v>
       </c>
@@ -17972,7 +18017,7 @@
         <v>0.52780147215521211</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2</v>
       </c>
@@ -18002,7 +18047,7 @@
         <v>0.38202152321991645</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3</v>
       </c>
@@ -18032,7 +18077,7 @@
         <v>0.53506024362021298</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>4</v>
       </c>
@@ -18062,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>5</v>
       </c>
@@ -18092,7 +18137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>6</v>
       </c>
@@ -18122,7 +18167,7 @@
         <v>0.37618338651000843</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>7</v>
       </c>
@@ -18152,7 +18197,7 @@
         <v>0.41318767951682134</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>8</v>
       </c>
@@ -18182,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>9</v>
       </c>
@@ -18212,7 +18257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>10</v>
       </c>
@@ -18242,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>11</v>
       </c>
@@ -18272,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>12</v>
       </c>
@@ -18302,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>13</v>
       </c>
@@ -18332,7 +18377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>14</v>
       </c>
@@ -18362,7 +18407,7 @@
         <v>0.89006353472940702</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>15</v>
       </c>
@@ -18392,7 +18437,7 @@
         <v>0.65217426330182082</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>16</v>
       </c>
@@ -18422,7 +18467,7 @@
         <v>0.42757504918926692</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>17</v>
       </c>
@@ -18452,7 +18497,7 @@
         <v>0.372197861268451</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>18</v>
       </c>
@@ -18482,7 +18527,7 @@
         <v>0.29336818536993997</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>19</v>
       </c>
@@ -18512,7 +18557,7 @@
         <v>0.16705825033814123</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>20</v>
       </c>
@@ -18542,7 +18587,7 @@
         <v>0.29071475300649791</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>21</v>
       </c>
@@ -18572,7 +18617,7 @@
         <v>0.23204407998490711</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>22</v>
       </c>
@@ -18602,7 +18647,7 @@
         <v>0.49532860829995823</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>23</v>
       </c>
@@ -18632,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>0</v>
       </c>
@@ -18666,7 +18711,7 @@
         <v>0.7023399250338227</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1</v>
       </c>
@@ -18696,7 +18741,7 @@
         <v>0.62163586075363786</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2</v>
       </c>
@@ -18726,7 +18771,7 @@
         <v>0.28423496382257563</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>3</v>
       </c>
@@ -18756,7 +18801,7 @@
         <v>0.45213222251217705</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>4</v>
       </c>
@@ -18786,7 +18831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>5</v>
       </c>
@@ -18816,7 +18861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>6</v>
       </c>
@@ -18846,7 +18891,7 @@
         <v>0.42986424158569131</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>7</v>
       </c>
@@ -18876,7 +18921,7 @@
         <v>0.48590586463436664</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>8</v>
       </c>
@@ -18906,7 +18951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>9</v>
       </c>
@@ -18936,7 +18981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>10</v>
       </c>
@@ -18966,7 +19011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>11</v>
       </c>
@@ -18996,7 +19041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>12</v>
       </c>
@@ -19026,7 +19071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>13</v>
       </c>
@@ -19056,7 +19101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>14</v>
       </c>
@@ -19086,7 +19131,7 @@
         <v>0.95649537412045205</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>15</v>
       </c>
@@ -19116,7 +19161,7 @@
         <v>0.76246993610926694</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>16</v>
       </c>
@@ -19146,7 +19191,7 @@
         <v>0.49174853999802615</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>17</v>
       </c>
@@ -19176,7 +19221,7 @@
         <v>0.37832719341029841</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>18</v>
       </c>
@@ -19206,7 +19251,7 @@
         <v>0.40015698859509896</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>19</v>
       </c>
@@ -19236,7 +19281,7 @@
         <v>0.22646304152650298</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>20</v>
       </c>
@@ -19266,7 +19311,7 @@
         <v>0.40035358817087269</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>21</v>
       </c>
@@ -19296,7 +19341,7 @@
         <v>0.29086981633115305</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>22</v>
       </c>
@@ -19326,7 +19371,7 @@
         <v>0.67550056924162771</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>23</v>
       </c>
@@ -19360,12 +19405,13 @@
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:O77"/>
@@ -19374,21 +19420,21 @@
       <selection activeCell="N53" sqref="L53:O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19432,7 +19478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19482,7 +19528,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19512,7 +19558,7 @@
         <v>0.5202342067330582</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19542,7 +19588,7 @@
         <v>0.36972319793825065</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19572,7 +19618,7 @@
         <v>0.7010411682425699</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19602,7 +19648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19632,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19662,7 +19708,7 @@
         <v>0.68758275825949022</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19692,7 +19738,7 @@
         <v>0.62664979956891487</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19722,7 +19768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19752,7 +19798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19782,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19812,7 +19858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -19842,7 +19888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -19872,7 +19918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -19902,7 +19948,7 @@
         <v>0.67618164867829089</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -19932,7 +19978,7 @@
         <v>0.75408231540803927</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -19962,7 +20008,7 @@
         <v>0.40323886008915022</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -19992,7 +20038,7 @@
         <v>0.32555036137844112</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -20022,7 +20068,7 @@
         <v>0.36601644451489623</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -20052,7 +20098,7 @@
         <v>0.22866253450206642</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -20082,7 +20128,7 @@
         <v>0.4358216941868433</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -20112,7 +20158,7 @@
         <v>0.28899686999192165</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -20142,7 +20188,7 @@
         <v>0.69823987874684568</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20172,7 +20218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -20186,7 +20232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20236,7 +20282,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -20266,7 +20312,7 @@
         <v>0.33815848948189398</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -20296,7 +20342,7 @@
         <v>0.38490581799488466</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -20326,7 +20372,7 @@
         <v>0.56219852298119555</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -20356,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -20386,7 +20432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -20416,7 +20462,7 @@
         <v>0.55933482687046965</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -20446,7 +20492,7 @@
         <v>0.54469446740917549</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -20476,7 +20522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -20506,7 +20552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -20536,7 +20582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -20566,7 +20612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -20596,7 +20642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -20627,7 +20673,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -20657,7 +20703,7 @@
         <v>0.62850314321420109</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
@@ -20687,7 +20733,7 @@
         <v>0.65090448878686691</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
@@ -20717,7 +20763,7 @@
         <v>0.37270715004527005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
@@ -20747,7 +20793,7 @@
         <v>0.30293435532909008</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18</v>
       </c>
@@ -20777,7 +20823,7 @@
         <v>0.3204600786443213</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -20808,7 +20854,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -20838,7 +20884,7 @@
         <v>0.40406000930637448</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -20868,7 +20914,7 @@
         <v>0.26767151017692303</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22</v>
       </c>
@@ -20899,7 +20945,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -20929,7 +20975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>35</v>
       </c>
@@ -20943,7 +20989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -20993,7 +21039,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -21023,7 +21069,7 @@
         <v>0.31467240926250273</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -21054,7 +21100,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -21084,7 +21130,7 @@
         <v>0.8719519945544556</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -21114,7 +21160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -21144,7 +21190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -21174,7 +21220,7 @@
         <v>0.81536283002030929</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -21204,7 +21250,7 @@
         <v>0.80052700111398634</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -21234,7 +21280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -21264,7 +21310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
@@ -21294,7 +21340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -21324,7 +21370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -21354,7 +21400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13</v>
       </c>
@@ -21384,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -21414,7 +21460,7 @@
         <v>0.85431565083555061</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15</v>
       </c>
@@ -21444,7 +21490,7 @@
         <v>0.90687202821044588</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -21474,7 +21520,7 @@
         <v>0.54489827646981359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17</v>
       </c>
@@ -21504,7 +21550,7 @@
         <v>0.44306395063280302</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -21534,7 +21580,7 @@
         <v>0.46870389839969878</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19</v>
       </c>
@@ -21564,7 +21610,7 @@
         <v>0.27707669535142121</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20</v>
       </c>
@@ -21594,7 +21640,7 @@
         <v>0.55950040077595087</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21</v>
       </c>
@@ -21624,7 +21670,7 @@
         <v>0.37045745649648371</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22</v>
       </c>
@@ -21654,7 +21700,7 @@
         <v>0.74555164527474227</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23</v>
       </c>
